--- a/dbms_homework_2 (1).xlsx
+++ b/dbms_homework_2 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Desktop/DBMS/DBMS_hw/DBMS_hw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E6CF8-C912-8C44-BCAF-52721C916645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E22B47-7AC2-724E-9649-1696C4A91752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Приведите пример супертипа сущности, не имеющего собственных экземпляров. </t>
   </si>
@@ -81,41 +81,44 @@
     <t>готово</t>
   </si>
   <si>
-    <t>context Водитель inv:</t>
-  </si>
-  <si>
-    <t>self.возраст &gt;= 18</t>
-  </si>
-  <si>
-    <t>self.возраст &lt;= 30</t>
-  </si>
-  <si>
-    <t>context ТС inv:</t>
-  </si>
-  <si>
-    <t>self.водитель.категорияПрав = self.ТС.категорияТС and</t>
-  </si>
-  <si>
-    <t>context Поездка inv:</t>
-  </si>
-  <si>
-    <t>self.ТС -&gt; select (возраст &gt; 30) -&gt; size() = 0</t>
-  </si>
-  <si>
-    <t>self.водитель -&gt; select (возраст &lt; 18) -&gt; size() = 0 and</t>
-  </si>
-  <si>
     <t>Диаграммa последовательностей</t>
   </si>
   <si>
     <t>Диаграмма взаимодействия</t>
+  </si>
+  <si>
+    <t>1. Условие для возраста водителя не менее 18 лет:</t>
+  </si>
+  <si>
+    <t>context Водитель</t>
+  </si>
+  <si>
+    <t>inv: self.возраст &gt;= 18</t>
+  </si>
+  <si>
+    <t>2. Условие для возраста автомобиля не более 30 лет (предполагается, что у автомобиля есть атрибут "год выпуска"):</t>
+  </si>
+  <si>
+    <t>context Автомобиль</t>
+  </si>
+  <si>
+    <t>inv: self.год_выпуска &gt;= (Текущий_год - 30)</t>
+  </si>
+  <si>
+    <t>сontext Водитель</t>
+  </si>
+  <si>
+    <t>inv КатегорияПравСоответствуетКатегорииТранспортногоСредства:</t>
+  </si>
+  <si>
+    <t>self.категория_прав = self.транспортное_средство.категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +175,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00C8"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +443,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,64 +467,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393423</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>104429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>460098</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>1534</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5128314" y="49551603"/>
-          <a:ext cx="7507219" cy="3596670"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -524,7 +494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -582,7 +552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,64 +561,6 @@
         <a:xfrm>
           <a:off x="765151" y="6214499"/>
           <a:ext cx="3499119" cy="1724325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>116751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>132563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="776654" y="9810270"/>
-          <a:ext cx="5253404" cy="2492312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,7 +610,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -756,7 +668,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -800,7 +712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -817,25 +729,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>27609</xdr:rowOff>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10161</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>188291</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>65709</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5943599" cy="3356472"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14">
+        <xdr:cNvPr id="14" name="Рисунок 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05AA846-FA13-A042-86AB-4898DCBB0C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64267F27-E156-0A43-8881-9358A100EA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="599440" y="9712961"/>
+          <a:ext cx="5943599" cy="3356472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>24722</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7966631" cy="3988478"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F079863-849F-C04B-BE67-4AA7407C5B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="345440" y="14360482"/>
+          <a:ext cx="7966631" cy="3988478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>193039</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5913120" cy="2826599"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B361127F-5C7D-3046-9ED9-862DE39C5ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,14 +826,12 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="14259892"/>
-          <a:ext cx="11010900" cy="4483100"/>
+          <a:off x="670560" y="19740879"/>
+          <a:ext cx="5913120" cy="2826599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,26 +839,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>565977</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556597</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>55217</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5755004" cy="2953145"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15">
+        <xdr:cNvPr id="20" name="Рисунок 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C092DFE3-CEA5-4544-A088-D95254906C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E053DB-BC87-FA4E-8FFA-94F3876976C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,14 +863,12 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="565977" y="19491738"/>
-          <a:ext cx="6754750" cy="3105979"/>
+          <a:off x="528320" y="53329840"/>
+          <a:ext cx="5755004" cy="2953145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -904,7 +876,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1205,21 +1177,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O265"/>
+  <dimension ref="A3:O277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14" customHeight="1"/>
+    <row r="4" spans="1:15" ht="14" customHeight="1"/>
+    <row r="5" spans="1:15" ht="14" customHeight="1"/>
+    <row r="6" spans="1:15" ht="14" customHeight="1">
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="14" customHeight="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1227,8 +1199,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:15" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:15" ht="14" customHeight="1" thickBot="1">
       <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
@@ -1237,73 +1209,73 @@
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="14" customHeight="1">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="14" customHeight="1">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="14" customHeight="1">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="14" customHeight="1">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="14" customHeight="1">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="14" customHeight="1">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="14" customHeight="1">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14" customHeight="1">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14" customHeight="1">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14" customHeight="1">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14" customHeight="1">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14" customHeight="1">
       <c r="B21" s="1"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14" customHeight="1">
       <c r="B22" s="1"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14" customHeight="1">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14" customHeight="1">
       <c r="B24" s="1"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14" customHeight="1">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.5" customHeight="1">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.5" customHeight="1">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1311,20 +1283,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.5" customHeight="1">
       <c r="B32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.5" customHeight="1">
       <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.5" customHeight="1" thickBot="1">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="14.5" customHeight="1" thickBot="1">
       <c r="B35" s="22" t="s">
         <v>16</v>
       </c>
@@ -1337,40 +1309,40 @@
       <c r="I35" s="23"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.5" customHeight="1">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.5" customHeight="1">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.5" customHeight="1">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.5" customHeight="1">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.5" customHeight="1">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.5" customHeight="1">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1378,13 +1350,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16" thickBot="1"/>
+    <row r="49" spans="1:2" ht="16" thickBot="1">
       <c r="B49" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1392,12 +1364,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="B52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>5</v>
       </c>
@@ -1405,17 +1377,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="E75" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -1423,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -1431,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -1439,41 +1411,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:10" ht="14.5" customHeight="1"/>
+    <row r="216" spans="2:10" ht="16" thickBot="1"/>
+    <row r="217" spans="2:10">
       <c r="B217" s="7"/>
       <c r="C217" s="8"/>
       <c r="D217" s="9"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:10">
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
       <c r="D218" s="12"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:10">
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
       <c r="D219" s="12"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:10">
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
       <c r="D220" s="12"/>
       <c r="F220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" ht="16" thickBot="1">
       <c r="B221" s="13"/>
       <c r="C221" s="14"/>
       <c r="D221" s="15"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="227" spans="2:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" ht="14.5" customHeight="1" thickBot="1"/>
+    <row r="228" spans="2:7">
       <c r="B228" s="7"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -1481,7 +1453,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7">
       <c r="B229" s="10"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
@@ -1489,7 +1461,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7">
       <c r="B230" s="10"/>
       <c r="C230" s="17"/>
       <c r="D230" s="17"/>
@@ -1497,7 +1469,7 @@
       <c r="F230" s="17"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" ht="16" thickBot="1">
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
@@ -1505,10 +1477,10 @@
       <c r="F231" s="19"/>
       <c r="G231" s="20"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7">
       <c r="D232" s="2"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>9</v>
       </c>
@@ -1516,107 +1488,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="B248" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B250" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C250" s="8"/>
-      <c r="D250" s="9"/>
-      <c r="F250" s="3"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B251" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C251" s="11"/>
-      <c r="D251" s="12"/>
-      <c r="F251" s="3"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B252" s="10"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="12"/>
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B253" s="10" t="s">
+    <row r="250" spans="1:5">
+      <c r="A250" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="32"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="32"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="32"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="35"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="35"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="35"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="31"/>
+      <c r="B261" s="35"/>
+      <c r="E261" s="31"/>
+      <c r="F261" s="35"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="31"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="35"/>
+      <c r="E262" s="31"/>
+      <c r="F262" s="35"/>
+      <c r="G262" s="35"/>
+      <c r="H262" s="35"/>
+      <c r="I262" s="35"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="B263" s="31"/>
+      <c r="C263" s="35"/>
+      <c r="E263" s="31"/>
+      <c r="F263" s="35"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="B264" s="31"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="31"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="35"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
         <v>21</v>
       </c>
-      <c r="C253" s="11"/>
-      <c r="D253" s="12"/>
-      <c r="F253" s="3"/>
-      <c r="J253" s="4"/>
-    </row>
-    <row r="254" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C254" s="14"/>
-      <c r="D254" s="15"/>
-      <c r="F254" s="5"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>10</v>
-      </c>
-      <c r="B257" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B261" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C261" s="16"/>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="9"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B262" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C262" s="17"/>
-      <c r="D262" s="17"/>
-      <c r="E262" s="17"/>
-      <c r="F262" s="17"/>
-      <c r="G262" s="12"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B263" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C263" s="17"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="17"/>
-      <c r="F263" s="17"/>
-      <c r="G263" s="12"/>
-    </row>
-    <row r="264" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C264" s="19"/>
-      <c r="D264" s="19"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="20"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D265" s="2"/>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
